--- a/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
+++ b/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\PDiCECpDoC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
   </bookViews>
@@ -23,9 +28,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Perc Decline per Doubling</t>
-  </si>
-  <si>
     <t>CCS Equipment</t>
   </si>
   <si>
@@ -58,11 +60,14 @@
   <si>
     <t>a proxy.</t>
   </si>
+  <si>
+    <t>Perc Decline per Doubling (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,6 +121,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -163,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,69 +419,69 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -489,21 +497,23 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>0.13</v>
@@ -767,13 +777,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBE892F8-770A-4BCA-B1C6-6B3A45D5A8C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFA4FE6-FDB5-4797-AF92-A806DAAF3121}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B584874-F9F7-4C48-A02E-8A1F02CE70F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3639F44D-39D9-4A66-9EF1-9ACBEB006F97}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8832482-83E5-4C93-967E-6FE1CC092866}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D673D7-D407-4372-A880-2AEB8D836316}"/>
 </file>